--- a/biology/Zoologie/Combat_d'animaux/Combat_d'animaux.xlsx
+++ b/biology/Zoologie/Combat_d'animaux/Combat_d'animaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Combat_d%27animaux</t>
+          <t>Combat_d'animaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les compétitions entre animaux, d'une même espèce (compétition intraspécifique) et/ou entre espèces (compétition interspécifique), existent sans intervention humaine.
 L'intervention humaine, dans une intention de spectacle de divertissement, relève souvent de cruauté envers les animaux, sans doute à l'exception des courses.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Combat_d%27animaux</t>
+          <t>Combat_d'animaux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,20 +525,193 @@
           <t>Combats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Parmi les plus anciens ou plus connus des combats figurent les venationes ou Hetztheater, jeux de cirque avec et/ou entre animaux, dans l'Antiquité romaine, ou en imitation. Les plus performants des combattants, des funérailles ont existé, ce dont témoigne (entre autres) la (de)tombe des animaux de combat.
-Insectes
-(en)Combat d'insectes - (en)Combat d'araignées
-(de)Combats de criquets
-Reptiles
-(en)Combat d'alligators
-Oiseaux
-Les combats de coqs (coq doré), d'origines diverses, sont pratiqués dans le nord de la France, en Chine (et par la diaspora chinoise partout dans le monde) : Kaichon;
-Poissons
-Les combats de poissons (combattant du Siam), sont d'origine d'Asie du Sud-Est (Thaïlande, Malaisie, Singapour) ;
-Mammifères
-Les combats de chiens (canis lupus) étaient pratiqués en Angleterre au XIXe siècle ;
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les plus anciens ou plus connus des combats figurent les venationes ou Hetztheater, jeux de cirque avec et/ou entre animaux, dans l'Antiquité romaine, ou en imitation. Les plus performants des combattants, des funérailles ont existé, ce dont témoigne (entre autres) la (de)tombe des animaux de combat.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Combat_d'animaux</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Combat_d%27animaux</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Combats</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en)Combat d'insectes - (en)Combat d'araignées
+(de)Combats de criquets</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Combat_d'animaux</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Combat_d%27animaux</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Combats</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Reptiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en)Combat d'alligators</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Combat_d'animaux</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Combat_d%27animaux</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Combats</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les combats de coqs (coq doré), d'origines diverses, sont pratiqués dans le nord de la France, en Chine (et par la diaspora chinoise partout dans le monde) : Kaichon;</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Combat_d'animaux</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Combat_d%27animaux</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Combats</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Poissons</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les combats de poissons (combattant du Siam), sont d'origine d'Asie du Sud-Est (Thaïlande, Malaisie, Singapour) ;</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Combat_d'animaux</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Combat_d%27animaux</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Combats</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les combats de chiens (canis lupus) étaient pratiqués en Angleterre au XIXe siècle ;
 Les combats d'étalons ;
 Les combats de béliers ;
 Les combats de vaches, appelés combats de reines ou bataille de reines sont pratiqués dans les Alpes, en Suisse et particulièrement en Valais, ainsi qu'en Val d'Aoste et en Haute-Savoie : Vache d'Hérens.
@@ -534,7 +719,7 @@
 Le Horse-baiting qui consiste généralement à faire attaquer un cheval par plusieurs chiens, est un ancien type de divertissement londonien ;
 Le Tōgyū est une discipline de lutte originaire du Japon, opposant deux taureaux de gabarit important ;
 Le Bull-baiting, consistant à opposer un taureau à un autre animal, généralement un chien ou plusieurs chiens ;
-Des combats d'animaux opposant notamment un taureau sauvage à un bœuf de Hongrie ou opposant deux ours étaient pratiqués tous les dimanches à Budapest (Hongrie), à la fin du XVIIIe siècle[1] : (de)Bear- und Bullbaiting en (de)Beargarden
+Des combats d'animaux opposant notamment un taureau sauvage à un bœuf de Hongrie ou opposant deux ours étaient pratiqués tous les dimanches à Budapest (Hongrie), à la fin du XVIIIe siècle : (de)Bear- und Bullbaiting en (de)Beargarden
 Combats entre des chiens et des rats : c’est porte Maillot que Gustave Krouet, chasseur de rats, installa le premier « ratodrome » qui fut dans les années 1910 célèbre dans tout Paris.
 (en)Combat de chameaux</t>
         </is>
